--- a/target/classes/testData/demo.xlsx
+++ b/target/classes/testData/demo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14685" windowHeight="4095" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15045" windowHeight="4095" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="65">
   <si>
     <t>Bhanu</t>
   </si>
@@ -218,9 +218,6 @@
   </si>
   <si>
     <t>12345678</t>
-  </si>
-  <si>
-    <t>12345</t>
   </si>
 </sst>
 </file>
@@ -1154,7 +1151,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1202,11 +1199,14 @@
         <v>63</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C4" t="s">
         <v>41</v>
       </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="27"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25"/>
   </sheetData>

--- a/target/classes/testData/demo.xlsx
+++ b/target/classes/testData/demo.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15510" windowHeight="2700" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15510" windowHeight="2700" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="4" r:id="rId1"/>
-    <sheet name="quotes" sheetId="6" r:id="rId2"/>
-    <sheet name="branch" sheetId="5" r:id="rId3"/>
+    <sheet name="branch" sheetId="9" r:id="rId2"/>
+    <sheet name="quotes" sheetId="6" r:id="rId3"/>
     <sheet name="complaintparameter" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="41">
   <si>
     <t>userName</t>
   </si>
@@ -98,9 +98,6 @@
   </si>
   <si>
     <t>branch_phone</t>
-  </si>
-  <si>
-    <t>branch_fax</t>
   </si>
   <si>
     <t>67543</t>
@@ -211,7 +208,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
@@ -219,7 +216,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="6">
@@ -576,6 +572,135 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="K2" r:id="rId2"/>
+    <hyperlink ref="L2" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -598,7 +723,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D1" t="s">
         <v>6</v>
@@ -612,7 +737,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -626,7 +751,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>2</v>
@@ -641,160 +766,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
-    <col min="5" max="5" width="22" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" customWidth="1"/>
-    <col min="11" max="11" width="16.42578125" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" customWidth="1"/>
-    <col min="14" max="14" width="15.85546875" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q1" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="L2" r:id="rId2"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -806,16 +782,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="8" t="s">
+      <c r="C1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>6</v>
       </c>
     </row>
@@ -827,7 +803,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
